--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-101_業務課題一覧(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-101_業務課題一覧(サンプル＆ガイド).xlsx
@@ -877,16 +877,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1244,6 +1234,9 @@
       <t>フヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -1746,15 +1739,6 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1774,51 +1758,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1830,17 +1787,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1849,6 +1815,33 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3854,9 +3847,7 @@
       <c r="G31" s="17"/>
       <c r="H31" s="14"/>
       <c r="J31" s="18"/>
-      <c r="R31" s="19" t="s">
-        <v>58</v>
-      </c>
+      <c r="R31" s="19"/>
     </row>
     <row r="32" spans="6:18" ht="18.75" x14ac:dyDescent="0.15">
       <c r="F32" s="14"/>
@@ -3915,20 +3906,24 @@
     </row>
     <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>60</v>
       </c>
       <c r="O38" s="24"/>
       <c r="P38" s="24"/>
       <c r="Q38" s="25"/>
       <c r="R38" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S38" s="24"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4407,7 +4402,7 @@
     <hyperlink ref="E38" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4763,7 +4758,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4801,7 +4796,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -4838,7 +4833,7 @@
     <row r="12" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -4988,86 +4983,86 @@
       <c r="B16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="31" t="s">
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="31" t="s">
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="33"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="30"/>
     </row>
     <row r="17" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="35"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="35"/>
-      <c r="AH17" s="36"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="33"/>
     </row>
     <row r="18" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
@@ -5075,42 +5070,42 @@
         <f>B17+1</f>
         <v>2</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="28" t="s">
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="30"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="36"/>
     </row>
     <row r="19" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
@@ -5118,42 +5113,42 @@
         <f t="shared" ref="B19:B22" si="0">B18+1</f>
         <v>3</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="30"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="36"/>
     </row>
     <row r="20" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
@@ -5161,42 +5156,42 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="30"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="36"/>
     </row>
     <row r="21" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
@@ -5204,42 +5199,42 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="28" t="s">
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="30"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="36"/>
     </row>
     <row r="22" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
@@ -5247,42 +5242,42 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="30"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="36"/>
     </row>
     <row r="23" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
@@ -5290,42 +5285,42 @@
         <f t="shared" ref="B23:B24" si="1">B22+1</f>
         <v>7</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="28" t="s">
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="30"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="36"/>
     </row>
     <row r="24" spans="1:34" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
@@ -5333,42 +5328,42 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="30"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="36"/>
     </row>
     <row r="25" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="8"/>
@@ -5442,12 +5437,11 @@
     <row r="52" spans="3:3" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:Y16"/>
-    <mergeCell ref="Z16:AH16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:Y17"/>
-    <mergeCell ref="Z17:AH17"/>
+    <mergeCell ref="I21:Y21"/>
+    <mergeCell ref="Z21:AH21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:Y22"/>
+    <mergeCell ref="Z22:AH22"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="I18:Y18"/>
     <mergeCell ref="Z18:AH18"/>
@@ -5464,11 +5458,12 @@
     <mergeCell ref="I23:Y23"/>
     <mergeCell ref="Z23:AH23"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:Y21"/>
-    <mergeCell ref="Z21:AH21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:Y22"/>
-    <mergeCell ref="Z22:AH22"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:Y16"/>
+    <mergeCell ref="Z16:AH16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:Y17"/>
+    <mergeCell ref="Z17:AH17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -5500,473 +5495,513 @@
       </c>
     </row>
     <row r="3" spans="1:51" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="53" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="53" t="s">
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="56" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="53" t="s">
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="56" t="s">
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="53" t="s">
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="54"/>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="55"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="43"/>
     </row>
     <row r="4" spans="1:51" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="60" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="50" t="s">
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="50" t="s">
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="37" t="s">
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="50" t="s">
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="39"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="59"/>
+      <c r="AW4" s="55"/>
       <c r="AX4" s="2"/>
     </row>
     <row r="5" spans="1:51" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="40" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="40" t="s">
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="37" t="s">
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="40" t="s">
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="43" t="s">
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="37" t="s">
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="37"/>
+      <c r="AP5" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="39"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="59"/>
+      <c r="AS5" s="59"/>
+      <c r="AT5" s="59"/>
+      <c r="AU5" s="59"/>
+      <c r="AV5" s="59"/>
+      <c r="AW5" s="55"/>
       <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
     </row>
     <row r="6" spans="1:51" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="40" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="40" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="37" t="s">
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="40" t="s">
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="43" t="s">
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AI6" s="43"/>
-      <c r="AJ6" s="43"/>
-      <c r="AK6" s="43"/>
-      <c r="AL6" s="43"/>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="43"/>
-      <c r="AO6" s="43"/>
-      <c r="AP6" s="37" t="s">
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="38"/>
-      <c r="AW6" s="39"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="59"/>
+      <c r="AS6" s="59"/>
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="59"/>
+      <c r="AV6" s="59"/>
+      <c r="AW6" s="55"/>
       <c r="AX6" s="2"/>
       <c r="AY6" s="2"/>
     </row>
     <row r="7" spans="1:51" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="57" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="40" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="40" t="s">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="37" t="s">
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="40" t="s">
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="43" t="s">
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="37" t="s">
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="37"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="37"/>
+      <c r="AP7" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="39"/>
+      <c r="AQ7" s="59"/>
+      <c r="AR7" s="59"/>
+      <c r="AS7" s="59"/>
+      <c r="AT7" s="59"/>
+      <c r="AU7" s="59"/>
+      <c r="AV7" s="59"/>
+      <c r="AW7" s="55"/>
     </row>
     <row r="8" spans="1:51" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="40" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="40" t="s">
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="37" t="s">
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB8" s="41"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="43" t="s">
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AI8" s="43"/>
-      <c r="AJ8" s="43"/>
-      <c r="AK8" s="43"/>
-      <c r="AL8" s="43"/>
-      <c r="AM8" s="43"/>
-      <c r="AN8" s="43"/>
-      <c r="AO8" s="43"/>
-      <c r="AP8" s="37" t="s">
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="AQ8" s="38"/>
-      <c r="AR8" s="38"/>
-      <c r="AS8" s="38"/>
-      <c r="AT8" s="38"/>
-      <c r="AU8" s="38"/>
-      <c r="AV8" s="38"/>
-      <c r="AW8" s="39"/>
+      <c r="AQ8" s="59"/>
+      <c r="AR8" s="59"/>
+      <c r="AS8" s="59"/>
+      <c r="AT8" s="59"/>
+      <c r="AU8" s="59"/>
+      <c r="AV8" s="59"/>
+      <c r="AW8" s="55"/>
     </row>
     <row r="9" spans="1:51" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="40" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="40" t="s">
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="37" t="s">
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="40" t="s">
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="43" t="s">
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="43"/>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="43"/>
-      <c r="AO9" s="43"/>
-      <c r="AP9" s="37" t="s">
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="38"/>
-      <c r="AT9" s="38"/>
-      <c r="AU9" s="38"/>
-      <c r="AV9" s="38"/>
-      <c r="AW9" s="39"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="59"/>
+      <c r="AS9" s="59"/>
+      <c r="AT9" s="59"/>
+      <c r="AU9" s="59"/>
+      <c r="AV9" s="59"/>
+      <c r="AW9" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AP8:AW8"/>
+    <mergeCell ref="AP7:AW7"/>
+    <mergeCell ref="AA7:AG7"/>
+    <mergeCell ref="AH5:AO5"/>
+    <mergeCell ref="AH6:AO6"/>
+    <mergeCell ref="AA5:AG5"/>
+    <mergeCell ref="AA6:AG6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AH9:AO9"/>
+    <mergeCell ref="AP9:AW9"/>
+    <mergeCell ref="AA8:AG8"/>
+    <mergeCell ref="AA9:AG9"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AH8:AO8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="P8:W8"/>
+    <mergeCell ref="P9:W9"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="AP3:AW3"/>
+    <mergeCell ref="AP4:AW4"/>
+    <mergeCell ref="AH4:AO4"/>
+    <mergeCell ref="AH3:AO3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="AA4:AG4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AP5:AW5"/>
+    <mergeCell ref="AP6:AW6"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AH7:AO7"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="P3:W3"/>
@@ -5983,46 +6018,6 @@
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="P7:W7"/>
     <mergeCell ref="J3:O3"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="AP3:AW3"/>
-    <mergeCell ref="AP4:AW4"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="AH3:AO3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="AA4:AG4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AP5:AW5"/>
-    <mergeCell ref="AP6:AW6"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AH7:AO7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AH9:AO9"/>
-    <mergeCell ref="AP9:AW9"/>
-    <mergeCell ref="AA8:AG8"/>
-    <mergeCell ref="AA9:AG9"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AH8:AO8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="P8:W8"/>
-    <mergeCell ref="P9:W9"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AP8:AW8"/>
-    <mergeCell ref="AP7:AW7"/>
-    <mergeCell ref="AA7:AG7"/>
-    <mergeCell ref="AH5:AO5"/>
-    <mergeCell ref="AH6:AO6"/>
-    <mergeCell ref="AA5:AG5"/>
-    <mergeCell ref="AA6:AG6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-101_業務課題一覧(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-101_業務課題一覧(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46616A1E-0C0D-4AA8-956D-B5E231D1A6FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="10575" windowHeight="5760"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="17850" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -18,12 +19,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>課題名</t>
     <rPh sb="0" eb="2">
@@ -875,17 +886,6 @@
   <si>
     <t>2018年08月29日</t>
     <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
   </si>
   <si>
     <t>・定義された課題に対する改善目標・原因・実現手段が明確で妥当であること。</t>
@@ -1235,14 +1235,11 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1923,6 +1920,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1944,7 +1944,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2051,52 +2057,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>122712</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6819900"/>
-          <a:ext cx="838200" cy="294162"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2112,7 +2072,13 @@
     <xdr:ext cx="1210588" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2185,7 +2151,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2244,7 +2216,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="カギ線コネクタ 5"/>
+        <xdr:cNvPr id="6" name="カギ線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="14" idx="1"/>
@@ -2296,7 +2274,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2359,7 +2343,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="カギ線コネクタ 7"/>
+        <xdr:cNvPr id="8" name="カギ線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="3"/>
           <a:endCxn id="14" idx="1"/>
@@ -2411,7 +2401,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="カギ線コネクタ 10"/>
+        <xdr:cNvPr id="11" name="カギ線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="9" idx="2"/>
           <a:endCxn id="14" idx="0"/>
@@ -2463,7 +2459,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="カギ線コネクタ 11"/>
+        <xdr:cNvPr id="12" name="カギ線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="30" idx="2"/>
           <a:endCxn id="14" idx="0"/>
@@ -2515,7 +2517,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2574,7 +2582,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2633,7 +2647,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2692,7 +2712,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="カギ線コネクタ 16"/>
+        <xdr:cNvPr id="17" name="カギ線コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="14" idx="3"/>
           <a:endCxn id="15" idx="1"/>
@@ -2744,7 +2770,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="カギ線コネクタ 17"/>
+        <xdr:cNvPr id="18" name="カギ線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="14" idx="3"/>
           <a:endCxn id="16" idx="1"/>
@@ -2791,7 +2823,13 @@
     <xdr:ext cx="1159292" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2899,7 +2937,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2972,7 +3016,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="20" idx="0"/>
           <a:endCxn id="14" idx="2"/>
@@ -3017,7 +3067,13 @@
     <xdr:ext cx="1005403" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3077,7 +3133,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="28" name="グループ化 27"/>
+        <xdr:cNvPr id="28" name="グループ化 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3090,7 +3152,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3162,7 +3230,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+          <xdr:cNvPr id="26" name="正方形/長方形 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3250,7 +3324,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="グループ化 28"/>
+        <xdr:cNvPr id="29" name="グループ化 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3263,7 +3343,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+          <xdr:cNvPr id="30" name="正方形/長方形 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3335,7 +3421,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+          <xdr:cNvPr id="31" name="正方形/長方形 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3418,7 +3510,13 @@
     <xdr:ext cx="800219" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3467,7 +3565,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3509,7 +3607,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3542,9 +3640,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3577,6 +3692,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3752,7 +3884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3859,7 +3991,7 @@
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
     </row>
-    <row r="33" spans="2:19" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="18.75" x14ac:dyDescent="0.15">
       <c r="F33" s="14"/>
       <c r="H33" s="14"/>
       <c r="L33" s="20"/>
@@ -3871,7 +4003,7 @@
       <c r="R33" s="23"/>
       <c r="S33" s="24"/>
     </row>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F34" s="14"/>
       <c r="H34" s="14"/>
       <c r="L34" s="20"/>
@@ -3883,56 +4015,45 @@
       <c r="R34" s="23"/>
       <c r="S34" s="24"/>
     </row>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="20"/>
       <c r="P35" s="20"/>
       <c r="Q35" s="24"/>
       <c r="R35" s="24"/>
       <c r="S35" s="24"/>
     </row>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="25"/>
       <c r="P36" s="24"/>
       <c r="Q36" s="25"/>
       <c r="R36" s="24"/>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="25"/>
       <c r="P37" s="24"/>
       <c r="Q37" s="25"/>
       <c r="R37" s="24"/>
       <c r="S37" s="25"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>59</v>
-      </c>
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="27"/>
       <c r="O38" s="24"/>
       <c r="P38" s="24"/>
       <c r="Q38" s="25"/>
-      <c r="R38" s="25" t="s">
-        <v>60</v>
-      </c>
+      <c r="R38" s="25"/>
       <c r="S38" s="24"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4398,17 +4519,14 @@
     <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E38" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH52"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -4758,7 +4876,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4796,7 +4914,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -4833,7 +4951,7 @@
     <row r="12" spans="1:34" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5036,7 +5154,7 @@
       <c r="G17" s="32"/>
       <c r="H17" s="33"/>
       <c r="I17" s="31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J17" s="32"/>
       <c r="K17" s="32"/>
@@ -5122,7 +5240,7 @@
       <c r="G19" s="35"/>
       <c r="H19" s="36"/>
       <c r="I19" s="34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
@@ -5165,7 +5283,7 @@
       <c r="G20" s="35"/>
       <c r="H20" s="36"/>
       <c r="I20" s="34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
@@ -5251,7 +5369,7 @@
       <c r="G22" s="35"/>
       <c r="H22" s="36"/>
       <c r="I22" s="34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
@@ -5337,7 +5455,7 @@
       <c r="G24" s="35"/>
       <c r="H24" s="36"/>
       <c r="I24" s="34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
@@ -5479,7 +5597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -5599,7 +5717,7 @@
       <c r="Y4" s="59"/>
       <c r="Z4" s="55"/>
       <c r="AA4" s="44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB4" s="45"/>
       <c r="AC4" s="45"/>
@@ -5618,7 +5736,7 @@
       <c r="AN4" s="37"/>
       <c r="AO4" s="37"/>
       <c r="AP4" s="54" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AQ4" s="59"/>
       <c r="AR4" s="59"/>
@@ -5866,7 +5984,7 @@
       <c r="Y8" s="59"/>
       <c r="Z8" s="55"/>
       <c r="AA8" s="47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AB8" s="48"/>
       <c r="AC8" s="48"/>
